--- a/DataDict/Site/Template_Metered_data_dictionary_WaDE_Oct2020.xlsx
+++ b/DataDict/Site/Template_Metered_data_dictionary_WaDE_Oct2020.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adela\OneDrive\Documents\MappingStatesDataToWaDE2.0\DataDict\Site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\DataDict\Site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018E46CE-DC02-4FC5-845A-82E2E9CDFC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D01B47-CFA7-49F9-B593-80B9841B5A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{72C05CBC-82A9-4295-85A4-76EE06FFC478}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{72C05CBC-82A9-4295-85A4-76EE06FFC478}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="10" r:id="rId1"/>
     <sheet name="Organizations" sheetId="6" r:id="rId2"/>
     <sheet name="Variables" sheetId="3" r:id="rId3"/>
-    <sheet name="WaterSources" sheetId="4" r:id="rId4"/>
-    <sheet name="Methods" sheetId="7" r:id="rId5"/>
+    <sheet name="Methods" sheetId="7" r:id="rId4"/>
+    <sheet name="WaterSources" sheetId="4" r:id="rId5"/>
     <sheet name="Sites" sheetId="5" r:id="rId6"/>
-    <sheet name="Amounts_time_series" sheetId="2" r:id="rId7"/>
+    <sheet name="Amounts_time_series" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="199">
   <si>
     <t>OrganizationName</t>
   </si>
@@ -101,9 +101,6 @@
     <t>An indicator of data confidence, should be a confidence interval (e.g. 90%, 50%, etc.)</t>
   </si>
   <si>
-    <t>Data provider's unique identifier for the site variable, can be alphanumeric</t>
-  </si>
-  <si>
     <t>USGSSiteID</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>EPSGCodeCV</t>
   </si>
   <si>
-    <t>EPSG Code for projection, with a preference for WGS_1984, EPSG of 4326</t>
-  </si>
-  <si>
     <t>CoordinateAccuracy</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>PrimaryUseCategoryCV</t>
   </si>
   <si>
-    <t>If multiple beneficial uses are specified, add primary use category</t>
-  </si>
-  <si>
     <t>WaterSourceName</t>
   </si>
   <si>
@@ -155,9 +146,6 @@
     <t>IrrigationMethodCV</t>
   </si>
   <si>
-    <t>Irrigation method for the place of use, if the VariableSpecificCV is SiteSpecificConsumptive Use, Irrigation or SiteSpecificWithdrawal, Irrigation</t>
-  </si>
-  <si>
     <t>CropTypeCV</t>
   </si>
   <si>
@@ -167,21 +155,12 @@
     <t>PopulationServed</t>
   </si>
   <si>
-    <t>Population served by the site-specific variable amount, if the VariableSpecificCV is SiteSpecificConsumptiveUse, Municipal or SiteSpecificWithdrawal, Municipal</t>
-  </si>
-  <si>
     <t>CommunityWaterSupplySystem</t>
   </si>
   <si>
-    <t>If the use is municipal, what is the name of the community water supplier (may be different from the water right owner)</t>
-  </si>
-  <si>
     <t>SDWISIdentifierCV</t>
   </si>
   <si>
-    <t>If the use is municipal, the data provider can add the SDWIS identifier for the CWS</t>
-  </si>
-  <si>
     <t>CustomerTypeCV</t>
   </si>
   <si>
@@ -191,9 +170,6 @@
     <t>ReportYearCV</t>
   </si>
   <si>
-    <t>Annual reporting period that this data are valid. There is a need to ensure the annual reporting period year matches the type of year used by the data provider. For example, if the data are valid for November 2018, the annual reporting period could be 2018 or 2019 depending on whether the data provider uses a calendar or water year.</t>
-  </si>
-  <si>
     <t>TimeframeStart</t>
   </si>
   <si>
@@ -209,12 +185,6 @@
     <t>County</t>
   </si>
   <si>
-    <t>LivestockServed</t>
-  </si>
-  <si>
-    <t>LivestockSpeciesCV</t>
-  </si>
-  <si>
     <t xml:space="preserve">AggregationInterval </t>
   </si>
   <si>
@@ -239,15 +209,6 @@
     <t>Water quality indicator(s) for the site-specific variable amount such as fresh, saline, mixed quality, etc.  Full list available here: http://vocabulary.westernstateswater.org/waterqualityindicator/.  Append if needed.</t>
   </si>
   <si>
-    <t>the water source name as in the data provider record</t>
-  </si>
-  <si>
-    <t>Source id as used in the data provider</t>
-  </si>
-  <si>
-    <t>The source type(s) of the site-specific variable amount (e.g., surface water, groundwater, mixed sources, reuse, etc).  Full list available here: http://vocabulary.westernstateswater.org/watersourcetype/.  Append here if needed.</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -287,39 +248,9 @@
     <t>SiteTypeCV</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>The data are accurate to +/- x of a second of a degree (using a differentially corrected GPS)</t>
-  </si>
-  <si>
-    <t>From a map? GPS? Where coordinate from? Full list available at: http://vocabulary.westernstateswater.org/coordinatemethod/.  Append if needed.</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>The Geographic Names Information System (GNIS), developed by the U.S. Geological Survey (USGS) in cooperation with the U.S. Board on Geographic Names (BGN), contains information about the official names for places, features, and areas in the 50 States, the District of Columbia, the territories and outlying areas of the United States, including Antarctica. It is the geographic names component of The National Map. The BGN maintains working relationships with State names authorities to cooperate in achieving the standardization of geographic names.</t>
   </si>
   <si>
-    <t>Latitude coordinate to six significant digits, WGS 84. Note: these can be the centroid of a PLSS Section DMS - with six significant figures. Seconds to 100ths of a second.</t>
-  </si>
-  <si>
-    <t>Longitude coordinate to six significant digits, WGS 84. Note: these can be the centroid of a PLSS Section DMS - with six significant figures. Seconds to 100ths of a second.</t>
-  </si>
-  <si>
-    <t>Whether or not the point location is indexed to the USGS NHD network.  List available at: http://vocabulary.westernstateswater.org/nhdnetworkstatus/.  Append if needed.</t>
-  </si>
-  <si>
-    <t>NHD Product that is used for the indexing. Should be NHDPlus V1, NHDPlus V2, NHD Med Res, or NHD High Res.  List available at: http://vocabulary.westernstateswater.org/nhdproduct/.  Append if needed.</t>
-  </si>
-  <si>
-    <t>Name of the POD site if available.</t>
-  </si>
-  <si>
-    <t>A term that describes the site type.  Available list at: http://vocabulary.westernstateswater.org/sitetype/.  Append if needed.</t>
-  </si>
-  <si>
     <t>A two digit code for each US state.  List available at: http://vocabulary.westernstateswater.org/states/.  Append if needed.</t>
   </si>
   <si>
@@ -368,27 +299,6 @@
     <t>A hyperlink back to the organization's website. Include https:// header and trailing forward slash</t>
   </si>
   <si>
-    <t>State name where the organization belongs to</t>
-  </si>
-  <si>
-    <t>a unique digital object identifier into the original dataset</t>
-  </si>
-  <si>
-    <t>Number of acres irrigated by the aggregated variable amount, if irrigation or agriculture is a specified beneficial use</t>
-  </si>
-  <si>
-    <t>GWh to be generated by the aggregated variable amount, if thermoelectric is a specified beneficial use</t>
-  </si>
-  <si>
-    <t>End date for the allocation each year in MM/DD/YYYY</t>
-  </si>
-  <si>
-    <t>Start date for the allocation each year in MM/DD/YYYY</t>
-  </si>
-  <si>
-    <t>UnitCV</t>
-  </si>
-  <si>
     <t>Adel Abdallah, WaDE Program Manager</t>
   </si>
   <si>
@@ -413,21 +323,9 @@
     <t>stores references to the metadata tables and a record of data that often changes over time</t>
   </si>
   <si>
-    <t>The metered amount</t>
-  </si>
-  <si>
-    <t>The number of livestock the water rights is watering</t>
-  </si>
-  <si>
-    <t>cattle, sheep, chicken</t>
-  </si>
-  <si>
     <t>PowerTypeCV</t>
   </si>
   <si>
-    <t>Thermal Open or closed loop cooling, hydropower</t>
-  </si>
-  <si>
     <t>Required field</t>
   </si>
   <si>
@@ -444,15 +342,6 @@
   </si>
   <si>
     <t>PODorPOUSite</t>
-  </si>
-  <si>
-    <t>In indicator to the Point of Use (POD) or Point of Diversion (POU)</t>
-  </si>
-  <si>
-    <t>A hydrological code or hydrologic unit code </t>
-  </si>
-  <si>
-    <t>USA County</t>
   </si>
   <si>
     <t>SiteNativeURL</t>
@@ -479,42 +368,18 @@
     <t>Colors indicate</t>
   </si>
   <si>
-    <t>Email of the contact person.</t>
-  </si>
-  <si>
     <t>(ex link)</t>
   </si>
   <si>
-    <t>An percentile indicator of data coverage (i.e., spatial coverage or completeness of the data)</t>
-  </si>
-  <si>
-    <t>Cattle</t>
-  </si>
-  <si>
     <t>Irrigation</t>
   </si>
   <si>
-    <t>The type of customer associated with the unit. E.g., Residential, Commercial, Industrial, Institutional, Combined, Unspecified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The type of crop associated with the unit. </t>
-  </si>
-  <si>
     <t>October, 2020</t>
   </si>
   <si>
     <t>e.g., 3703994</t>
   </si>
   <si>
-    <t>e..g, BOLES RESERVOIR</t>
-  </si>
-  <si>
-    <t>e..g, RESERVOIR</t>
-  </si>
-  <si>
-    <t>e.g., 36.58129</t>
-  </si>
-  <si>
     <t>e.g., -106.700435</t>
   </si>
   <si>
@@ -527,9 +392,6 @@
     <t>e.g., Unknown</t>
   </si>
   <si>
-    <t>e.g., EPSG:4326</t>
-  </si>
-  <si>
     <t>e.g., Consumprive Use</t>
   </si>
   <si>
@@ -566,9 +428,6 @@
     <t>e.g., 0.15</t>
   </si>
   <si>
-    <t>e..g, 17839</t>
-  </si>
-  <si>
     <t>e.g., Jacks Creek</t>
   </si>
   <si>
@@ -581,24 +440,6 @@
     <t>e.g., Allocation Irrigation</t>
   </si>
   <si>
-    <t>e.g, 1</t>
-  </si>
-  <si>
-    <t>e.g., Year</t>
-  </si>
-  <si>
-    <t>e.g., Average</t>
-  </si>
-  <si>
-    <t>e.g., CFS</t>
-  </si>
-  <si>
-    <t>e.g., 10</t>
-  </si>
-  <si>
-    <t>e.g., WaterYear</t>
-  </si>
-  <si>
     <t>e.g., Colorado Division of Water Resources</t>
   </si>
   <si>
@@ -618,13 +459,202 @@
   </si>
   <si>
     <t>e.g., Water Administration for the State of Colorado</t>
+  </si>
+  <si>
+    <t>Email information for orgaization contact person.</t>
+  </si>
+  <si>
+    <t>Two digit state abbreviation where the organization is.</t>
+  </si>
+  <si>
+    <t>AmountUnitCV</t>
+  </si>
+  <si>
+    <t>MaximumAmountUnitCV</t>
+  </si>
+  <si>
+    <t>The allocation unit of measurment used for maxium limits (e.g., CFS, AF, etc).</t>
+  </si>
+  <si>
+    <t>e.g., 1</t>
+  </si>
+  <si>
+    <t>e..g, Year</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>CFS</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>WaterYear</t>
+  </si>
+  <si>
+    <t>An indicator of data coverage (i.e., spatial coverage or completeness of the data)</t>
+  </si>
+  <si>
+    <t>The water source native ID used by the data provider.</t>
+  </si>
+  <si>
+    <t>The water source name as recognized by the data provider.</t>
+  </si>
+  <si>
+    <t>The high level description of the water source type (e.g., surface water, groundwater, mixed, reuse, etc.)</t>
+  </si>
+  <si>
+    <t>The GIS objects / shape written in Well-Known Text (WKT) format.</t>
+  </si>
+  <si>
+    <t>e.g, 17839</t>
+  </si>
+  <si>
+    <t>e.g., GNIS80002</t>
+  </si>
+  <si>
+    <t>Unique identifier code / ID used by the data provider to distinguish the data site in the source data set.</t>
+  </si>
+  <si>
+    <t>Recognized name of the data site by the data provider.</t>
+  </si>
+  <si>
+    <t>The high level description of the site type recognized by the data provider (e.g., well, spring, reservoir, river, ditch, etc.).</t>
+  </si>
+  <si>
+    <t>Latitude coordinate of the data site.  Up to six significant digits in WGS 84.</t>
+  </si>
+  <si>
+    <t>Longitude coordinate of the data site.  Up to six significant digits in WGS 84.</t>
+  </si>
+  <si>
+    <t>Description of the coordinate method used to generate the GIS location portion of the data.</t>
+  </si>
+  <si>
+    <t>WaDe identifier term if the data site is a point of diversion (POD), place of use (POU), or a gage station.  Used for linking sites under similar records.</t>
+  </si>
+  <si>
+    <t>Description of the data accuracy.  The data are accurate to +/- x of a second of a degree (using a differentially corrected GPS).</t>
+  </si>
+  <si>
+    <t>EPSG Code for projection used for WaDE (e.g.,  EPSG:4326).</t>
+  </si>
+  <si>
+    <t>The Hydrologic Unit Identifier Code at level 12 of where the data site is located in.</t>
+  </si>
+  <si>
+    <t>The Hydrologic Unit Identifier Code at level 8 of where the data site is located in.</t>
+  </si>
+  <si>
+    <t>Name of the USA county the data site is located in.</t>
+  </si>
+  <si>
+    <t>USGS NHD network status identifier term (if available).</t>
+  </si>
+  <si>
+    <t>NHD product used for indexing (if available) (e.g., NHDPlus V1, NHDPlus V2, NHD Med Res, NHD High Res, etc).</t>
+  </si>
+  <si>
+    <t>Unique identifier code / ID used by the USGS to distinguish the data site in the source data set.  Typically separate from SiteNativeID.</t>
+  </si>
+  <si>
+    <t>e.g., Boles Reservoir</t>
+  </si>
+  <si>
+    <t>e.g., Reservoir</t>
+  </si>
+  <si>
+    <t>e.g., 39.58129</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>AllocationCropDutyAmount</t>
+  </si>
+  <si>
+    <t>BeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>DataPublicationDate</t>
+  </si>
+  <si>
+    <t>Crop Duty amount. The number of acres of land that is irrigated for the complete growth of a crop by supplying 1-meter cubes per second of water continuously throughout the crop.</t>
+  </si>
+  <si>
+    <t>e.g, 5</t>
+  </si>
+  <si>
+    <t>e.g., irrigation</t>
+  </si>
+  <si>
+    <t>Date that this data was published by the data provider to the public.</t>
+  </si>
+  <si>
+    <t>e.g., 07/08/2021</t>
+  </si>
+  <si>
+    <t>The amount of water at this data site at the time.</t>
+  </si>
+  <si>
+    <t>The state recognized stated purpose for the water allocation (e.g., irrigation, power, etc) (if multiple, provide as a comma separated list).</t>
+  </si>
+  <si>
+    <t>Associated unique identifier for the water right at this data site used by the data provider's in the source data.</t>
+  </si>
+  <si>
+    <t>Name of the community water system the water right serves (if available).</t>
+  </si>
+  <si>
+    <t>The type of crop watered by the water right (if available) (e.g., wheat, alfalfa, corn, hay, etc.) (applies mostly to irrigation uses).</t>
+  </si>
+  <si>
+    <t>Description of the type of customer the water right services (e.g., Residential, Commercial, Industrial, Institutional, Combined, Unspecified, etc).</t>
+  </si>
+  <si>
+    <t>A unique digital object identifier into the original dataset.</t>
+  </si>
+  <si>
+    <t>Number of acres irrigated by the water right (if available).</t>
+  </si>
+  <si>
+    <t>A term to describe the method used for the place of use (if available) (applies mostly to irrigation beneficial uses).</t>
+  </si>
+  <si>
+    <t>The amount of population served by the water right (if available).</t>
+  </si>
+  <si>
+    <t>The power (GWh) to be generated by the water right record (if available) (mostly applies to power generating beneficial uses).</t>
+  </si>
+  <si>
+    <t>Year corresponding to the annual reporting period for the aggregated data in the reporting unit.</t>
+  </si>
+  <si>
+    <t>End date when the water right no longer can legally access the assigned water.  Format of MM/DD.</t>
+  </si>
+  <si>
+    <t>Start date when the water right can legally access the assigned water.  Format of MM/DD.</t>
+  </si>
+  <si>
+    <t>Description of the type of power generated.</t>
+  </si>
+  <si>
+    <t>The primary stated purpose by the water allocation (if available).</t>
+  </si>
+  <si>
+    <t>If the use is municipal, the data provider can add the SDWIS identifier for the CWS.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,8 +707,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,8 +739,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -810,40 +858,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -877,19 +895,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -926,9 +931,106 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -936,7 +1038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -993,7 +1095,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1005,11 +1106,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,124 +1118,124 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1522,55 +1621,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2403CCCD-12BC-4468-8E1E-FDDA82B7D922}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1579,75 +1678,75 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1667,102 +1766,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530E092E-37FC-44C0-9387-B111C2DA4E7B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="26.7109375" style="11"/>
-    <col min="7" max="8" width="26.7109375" style="4"/>
+    <col min="1" max="1" width="18.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="22" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:8" s="36" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="59" t="s">
+    </row>
+    <row r="2" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="82" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" s="74" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="77" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="47" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="5"/>
     </row>
   </sheetData>
@@ -1773,111 +1878,122 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E08C38F-342B-49D5-9FE3-F27BCCD90258}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="19"/>
-    <col min="7" max="7" width="18.85546875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:9" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="57" t="s">
+      <c r="C1" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="68" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F1" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="53">
+        <v>10</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
       <c r="D4" s="10"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1885,200 +2001,105 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85242FD5-FD52-4C86-8C01-7E742284680E}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="44" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{94A3CD6D-18F5-4201-813A-21F5CC2C3EE4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72A969-622D-4936-987A-049101D32A6E}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:8" s="36" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="57" t="s">
+      <c r="C1" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:8" s="32" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="B2" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="47" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="42" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -2093,232 +2114,333 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85242FD5-FD52-4C86-8C01-7E742284680E}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{1AB3CDA8-9946-45A3-9A75-21E1F8DFCF69}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57FC1D5-7413-4D4B-8F4B-A0DAC5C798A1}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" style="26" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="27" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="28" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="28" customWidth="1"/>
-    <col min="8" max="19" width="18.28515625" style="26" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="17.6640625" style="26"/>
+    <col min="2" max="2" width="17.6640625" style="68"/>
+    <col min="3" max="3" width="17.6640625" style="25"/>
+    <col min="4" max="5" width="17.6640625" style="26"/>
+    <col min="6" max="6" width="18" style="27" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="72"/>
+    <col min="8" max="18" width="17.6640625" style="25"/>
+    <col min="19" max="19" width="17.6640625" style="64"/>
+    <col min="20" max="20" width="17.6640625" style="25"/>
+    <col min="21" max="16384" width="17.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="57" t="s">
+    <row r="1" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="37" t="s">
+      <c r="S1" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="33" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="36" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="55"/>
-    </row>
-    <row r="3" spans="1:21" s="80" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="73" t="s">
+      <c r="L2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="S2" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="62" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="58">
+        <v>4326</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="59">
+        <v>17060102</v>
+      </c>
+      <c r="N3" s="59">
+        <v>170601</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="K3" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="L3" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q3" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="R3" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="79"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="63"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{06AD3B3E-68A6-400F-9335-4EF83F8639C6}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{D5433114-EAF8-4F48-84D0-3D45D47C111E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2326,239 +2448,257 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF95F0A-A6D8-4C9F-9AAD-CE9D64114AA9}">
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF1047A-1EE9-45C5-A2F1-82BE4B1B09DE}">
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="19"/>
-    <col min="2" max="2" width="14" style="19" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="31" style="13" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="13" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="13" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="13" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="13" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="13" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="13" customWidth="1"/>
-    <col min="19" max="19" width="29.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="14" style="82" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="82" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="83" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" style="83" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" style="84" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="84" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="84" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="84" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" style="84" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="84" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="84" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="84" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" style="84" customWidth="1"/>
+    <col min="14" max="14" width="19" style="84" customWidth="1"/>
+    <col min="15" max="15" width="21.88671875" style="84" customWidth="1"/>
+    <col min="16" max="16" width="24.44140625" style="84" customWidth="1"/>
+    <col min="17" max="17" width="29.88671875" style="84" customWidth="1"/>
+    <col min="18" max="18" width="30.88671875" style="84" customWidth="1"/>
+    <col min="19" max="19" width="22.5546875" style="88" customWidth="1"/>
+    <col min="20" max="20" width="20.88671875" style="85" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="51" t="s">
+    <row r="1" spans="1:22" s="74" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="51" t="s">
+    </row>
+    <row r="2" spans="1:22" s="76" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="P2" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q2" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="S2" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="T2" s="75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="77" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="E3" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="49" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="45">
-        <v>20</v>
-      </c>
-      <c r="N3" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q3" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="R3" s="45">
+      <c r="L3" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="89" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="89">
         <v>2012</v>
       </c>
-      <c r="S3" s="52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
+      <c r="R3" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="T3" s="89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="C1:V4">
+    <sortCondition ref="C1:V1"/>
+  </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P3" r:id="rId1" xr:uid="{1FEE44BA-3099-4B8B-A17A-9D16C053E14D}"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{6FE1A1D9-B397-4C25-AD0F-703C24687475}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>